--- a/biology/Botanique/Petasites_paradoxus/Petasites_paradoxus.xlsx
+++ b/biology/Botanique/Petasites_paradoxus/Petasites_paradoxus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pétasite paradoxal, Pétasite blanc de neige
-Petasites paradoxus, le Pétasite paradoxal[2] ou Pétasite blanc de neige[2] est une espèce de plante à fleurs de la famille des Astéracées[1], des abords humides des ruisseaux de montagne sur calcaire.
+Petasites paradoxus, le Pétasite paradoxal ou Pétasite blanc de neige est une espèce de plante à fleurs de la famille des Astéracées, des abords humides des ruisseaux de montagne sur calcaire.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées vivaces dioïques.
-Les feuilles d'été ont un limbe subtriangulaire jusqu'à 40 cm de long. Elles sont blanches tomenteuses sur la face inférieure. Les nervures sont blanchâtres sur la face supérieure. Floraison de mars à juillet[3].
+Les feuilles d'été ont un limbe subtriangulaire jusqu'à 40 cm de long. Elles sont blanches tomenteuses sur la face inférieure. Les nervures sont blanchâtres sur la face supérieure. Floraison de mars à juillet.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jura, Alpes, Pyrénées. Altitude de 1 200 à 2 600 m mais, parfois (abyssale), dès 600 m.
 </t>
@@ -575,12 +591,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Petasites paradoxus (Retz.) Baumg., 1817[4].
-L'espèce a été initialement classée dans le genre Tussilago sous le basionyme Tussilago paradoxa Retz.[5].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Pétasite blanc de neige[2], Pétasite paradoxal[2].
-Petasites paradoxus a pour synonymes[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Petasites paradoxus (Retz.) Baumg., 1817.
+L'espèce a été initialement classée dans le genre Tussilago sous le basionyme Tussilago paradoxa Retz..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Pétasite blanc de neige, Pétasite paradoxal.
+Petasites paradoxus a pour synonymes :
 Anacyclus tomentosus f. glabrus Huter, Porta &amp; Rigo ex Fiori, 1904
 Petasites albus subsp. niveus (Vill.) Bonnier
 Petasites niveus var. foemineus Döll
